--- a/Popeyes.suite/Resources/Oracle.xlsx
+++ b/Popeyes.suite/Resources/Oracle.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="97">
   <si>
     <t xml:space="preserve">ID</t>
   </si>
@@ -28,120 +28,298 @@
     <t xml:space="preserve">TestCaseName</t>
   </si>
   <si>
-    <t xml:space="preserve">DineOption</t>
-  </si>
-  <si>
     <t xml:space="preserve">MainCourse</t>
   </si>
   <si>
     <t xml:space="preserve">SelectMeal</t>
   </si>
   <si>
-    <t xml:space="preserve">SelectMealOption</t>
-  </si>
-  <si>
     <t xml:space="preserve">MealDisplayName</t>
   </si>
   <si>
     <t xml:space="preserve">Flavor</t>
   </si>
   <si>
+    <t xml:space="preserve">OrderType</t>
+  </si>
+  <si>
     <t xml:space="preserve">Sides</t>
   </si>
   <si>
     <t xml:space="preserve">Drink</t>
   </si>
   <si>
-    <t xml:space="preserve">Popcorn Shrimp &amp; Tender</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dine In</t>
+    <t xml:space="preserve">SideUpcharge</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DrinkUpcharge</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KDSMealDisplayName</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ExpoLabelDisplayName</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ReceiptDisplayName</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LabelMealDisplayName</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Popcorn Shrimp &amp; Tender ALC</t>
   </si>
   <si>
     <t xml:space="preserve">Seafood</t>
   </si>
   <si>
-    <t xml:space="preserve">¼ lb Pop Shrimp &amp; Tender</t>
+    <t xml:space="preserve">1/4 lb Pop Shrimp &amp; Tender</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1/4 lb Pop Shrimp &amp; 2 Pc Tenders</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Buttermilk Ranch, 2 Pc. Tender Spicy, Bold BBQ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A La Carte</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Pop Shrmp &amp; 2 Pc. Tndrs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Shrmp Pop 1/4LB, Tndr Spcy 2 Pc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1/4 lb Pop Shrimp, 1/4 lb Popcorn Shrimp Buttermilk Ranch</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Popcorn Shrimp &amp; Tender Dinner</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bayou Buffalo, 2 Pc. Tender Classic, Honey</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dinner</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fried Pickle</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Shrmp Pop 1/4LB, Tndr Clsc 2 Pc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1/4 lb Pop Shrimp, 1/4 lb Popcorn Shrimp Bayou Buffalo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Shrmp Pop 1/4LB, Tndr Clsc 2 Pc, Fried Pickles</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Popcorn Shrimp &amp; Tender Combo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tartar, 2 Pc. Tender Spicy, Bold BBQ</t>
   </si>
   <si>
     <t xml:space="preserve">Combo</t>
   </si>
   <si>
-    <t xml:space="preserve">Bold BBQ, 2pc. Tender Spicy</t>
+    <t xml:space="preserve">Rg Mac &amp; Cheese</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Apple Cran Frzn Lemonade</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rg Mac &amp; Cheese, 0.50</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Apple Cran Frzn Lemonade, 1.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1/4 lb Pop Shrimp, 1/4 lb Popcorn Shrimp Tartar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Shrmp Pop 1/4LB, Tndr Spcy 2 Pc, Mac &amp; Cheese Rg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Popcorn Shrimp &amp; Tender Lg Combo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bayou Buffalo, 2 Pc. Tender Classic, Wld Honey Must</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lg Combo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rg Mac &amp; Cheese,Rg Cajun Fries</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Shrmp Pop 1/4LB, Tndr Clsc 2 Pc,Cajun</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Classic Chicken Sandwich ALC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sandwiches</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Classic Sandwich</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Classic Chicken Sandwich Dinner</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Classic Sandwich, Mac &amp; Cheese Rg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Classic Sandwich, Rg Mac &amp; Cheese</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Classic Chicken Sandwich Combo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reg Coke</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Classic Sandwich, Fried Pickles</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Classic Sandwich, Fried Pickle</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Classic Chicken Sandwich Lg Combo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rg Mac &amp; Cheese, Rg Cole Slaw</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12 PC Wings ALC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wings</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12 Pc. Wings</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6 Garlic Parmesan Wings, Bold BBQ, 6 Ghost Pepper Wings, Tartar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wing 12P</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wing 6p Garlic Parm, Wing 6p Ghost Pepper</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12 Pc. Wings, 6 Garlic Parmesan Wings</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12 PC Wings Dinner</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6 Honey BBQ Wings, Bold BBQ, 6 Honey BBQ Wings, Bayou Buffalo</t>
   </si>
   <si>
     <t xml:space="preserve">Rg Cajun Fries</t>
   </si>
   <si>
-    <t xml:space="preserve">Reg Coke</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Classic Chicken Sandwich Combo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sandwiches Seafood</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CLASSIC CHICKEN SANDWICH, Crispy, Classic Chicken Sandwich</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Clsc San CMB</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Red Beans Rice</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ChilledStrawberryLemonade</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12 PC Wings Dinner</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Wings</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12Pc Wings Dinner</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12P Wings Dinner</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6 Pc Garlic Parmesan Wings, 6 P Honey Lemon Wings</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fried Pickles</t>
+    <t xml:space="preserve">Wing 6p Honey BBQ, Wing 6p Honey BBQ, Cajun</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12 Pc. Wings, 6 Honey BBQ Wings</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12 PC Wings Combo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6 Signature Hot Wings, Tartar, 6 Honey Lemon Pepper Wings, Buttermilk Ranch</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wing 6p Signature Hot, Wing 6p Honey Lemon, Mac &amp; Cheese Rg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12 Pc. Wings, 6 Signature Hot Wings</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12 PC Wings Lg Combo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6P Garlic Parm Boneless, Wld Honey Must, 6 Ghost Pepper Wings, Cocktail</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bnls 6p Garlic Parm, Wing 6p Ghost Pepper, Mac &amp; Cheese Rg, Coleslaw Rg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12 Pc. Wings, 6P Garlic Parm Boneless</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4 PC BIC ALC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chicken</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4 Pc. Chicken</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Classic</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BIC Classic 4P</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4 Pc. Classic Signature Chicken, BIC Classic 4P</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4 Pc. Classic Signature chicken ALC,4 Pc. Classic Signature Chicken</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BIC Classic 4P, Biscuit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4 PC BIC Dinner</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BIC Classic 4P, Fried Pickles</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4 Pc. Signature chicken Dinner,4 Pc. Classic Signature Chicken</t>
   </si>
   <si>
     <t xml:space="preserve">4 PC BIC Combo</t>
   </si>
   <si>
-    <t xml:space="preserve">Chicken</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4PC Chicken</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Large Combo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LgCmb BIC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CLASSIC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cole Slaw, Home Mac Chs</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DrPepperLarge</t>
+    <t xml:space="preserve">BIC Classic 4P, Mac &amp; Cheese Rg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4 Pc. Signature chicken Combo,4 Pc. Classic Signature Chicken</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4 PC BIC Lg Combo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rg Mac &amp; Cheese,Fried Pickle</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reg Sierra Mist</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BIC Classic 4P,Mac &amp; Cheese Rg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4 Pc. Signature chicken Large Combo,4 Pc. Classic Signature Chicken</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BIC Classic 4P, Mac &amp; Cheese Rg, Fried Pickles</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="General"/>
+    <numFmt numFmtId="165" formatCode="0.00"/>
   </numFmts>
   <fonts count="4">
     <font>
@@ -209,12 +387,24 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -341,23 +531,29 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:J1048576"/>
+  <dimension ref="A1:O17"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G2" activeCellId="0" sqref="G2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="M1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="O12" activeCellId="0" sqref="O12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.72265625" defaultRowHeight="15.75" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="6"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="28.16"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="29.16"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="49.74"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="19.16"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="23.01"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="43.06"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="21.53"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="25.68"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="29.87"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="13.33"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="24.46"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="26.66"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="46.74"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="31.05"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="31.38"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="25.68"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="18.22"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="26.17"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="1" width="22.27"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="1" width="39.82"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="1" width="99.65"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="1" width="58.73"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -391,131 +587,692 @@
       <c r="J1" s="1" t="s">
         <v>9</v>
       </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>20</v>
+      </c>
+      <c r="J2" s="2"/>
+      <c r="K2" s="2"/>
+      <c r="L2" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E3" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="F3" s="1" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="G3" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="J3" s="2"/>
+      <c r="K3" s="2"/>
+      <c r="L3" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="I3" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="M3" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="N3" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="O3" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="n">
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>26</v>
+        <v>18</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>32</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="I4" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>34</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="J4" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="K4" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="L4" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="M4" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="N4" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="O4" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="n">
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="C5" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="I5" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="J5" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="K5" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="L5" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="M5" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="N5" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="O5" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A6" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="I6" s="3"/>
+      <c r="K6" s="2"/>
+      <c r="L6" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="M6" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="N6" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="O6" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A7" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H7" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="I7" s="3"/>
+      <c r="J7" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="K7" s="2"/>
+      <c r="L7" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="M7" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="N7" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="O7" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A8" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="I8" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="J8" s="2"/>
+      <c r="K8" s="2"/>
+      <c r="L8" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="M8" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="N8" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="O8" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A9" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="I9" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="J9" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="K9" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="L9" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="M9" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="N9" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="O9" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A10" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="H10" s="3"/>
+      <c r="I10" s="3"/>
+      <c r="J10" s="2"/>
+      <c r="K10" s="2"/>
+      <c r="L10" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="M10" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="N10" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="O10" s="3" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A11" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H11" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="I11" s="3"/>
+      <c r="J11" s="2"/>
+      <c r="K11" s="2"/>
+      <c r="L11" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="M11" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="N11" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="O11" s="3" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A12" s="1" t="n">
         <v>11</v>
       </c>
-      <c r="D5" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="F5" s="1" t="s">
+      <c r="B12" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="G12" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="G5" s="1" t="s">
+      <c r="H12" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="H5" s="1" t="s">
+      <c r="I12" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="J12" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="K12" s="2"/>
+      <c r="L12" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="M12" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="N12" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="O12" s="3" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A13" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="I13" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="I5" s="1" t="s">
+      <c r="J13" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="J5" s="1" t="s">
+      <c r="K13" s="4" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="1048572" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="1048573" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="1048574" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+      <c r="L13" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="M13" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="N13" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="O13" s="3" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A14" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="J14" s="2"/>
+      <c r="K14" s="2"/>
+      <c r="L14" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="M14" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="N14" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="O14" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A15" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="J15" s="2"/>
+      <c r="K15" s="2"/>
+      <c r="L15" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="M15" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="N15" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="O15" s="3" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A16" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I16" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="J16" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="K16" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="L16" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="M16" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="N16" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="O16" s="3" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A17" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="H17" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="I17" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="J17" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="K17" s="2"/>
+      <c r="L17" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="M17" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="N17" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="O17" s="3" t="s">
+        <v>96</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>

--- a/Popeyes.suite/Resources/Oracle.xlsx
+++ b/Popeyes.suite/Resources/Oracle.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="109">
   <si>
     <t xml:space="preserve">ID</t>
   </si>
@@ -67,6 +67,9 @@
     <t xml:space="preserve">LabelMealDisplayName</t>
   </si>
   <si>
+    <t xml:space="preserve">Discounts</t>
+  </si>
+  <si>
     <t xml:space="preserve">Popcorn Shrimp &amp; Tender ALC</t>
   </si>
   <si>
@@ -244,7 +247,7 @@
     <t xml:space="preserve">12 PC Wings Lg Combo</t>
   </si>
   <si>
-    <t xml:space="preserve">6P Garlic Parm Boneless, Wld Honey Must, 6 Ghost Pepper Wings, Cocktail</t>
+    <t xml:space="preserve">6P Garlic Parm Boneless, Bold BBQ, 6 Ghost Pepper Wings, Cocktail</t>
   </si>
   <si>
     <t xml:space="preserve">Bnls 6p Garlic Parm, Wing 6p Ghost Pepper, Mac &amp; Cheese Rg, Coleslaw Rg</t>
@@ -311,6 +314,39 @@
   </si>
   <si>
     <t xml:space="preserve">BIC Classic 4P, Mac &amp; Cheese Rg, Fried Pickles</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kids Tender Meal Combo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kids</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kids Tender Meal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Buttermilk Ranch</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kid Tndr Meal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tndr Signature</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kids Tender Meal, Tender Signature, Buttermilk Ranch</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X% Off Discount</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Spicy Chicken</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Spicy Sandwich</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10% Off Order</t>
   </si>
 </sst>
 </file>
@@ -531,10 +567,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:O17"/>
+  <dimension ref="A1:P19"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="M1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="O12" activeCellId="0" sqref="O12"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="I1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="O18" activeCellId="0" sqref="O18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.72265625" defaultRowHeight="15.75" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -602,42 +638,45 @@
       <c r="O1" s="1" t="s">
         <v>14</v>
       </c>
+      <c r="P1" s="1" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J2" s="2"/>
       <c r="K2" s="2"/>
       <c r="L2" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="N2" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="O2" s="1" t="s">
         <v>23</v>
-      </c>
-      <c r="O2" s="1" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -645,39 +684,39 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="J3" s="2"/>
       <c r="K3" s="2"/>
       <c r="L3" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="N3" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="O3" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -685,46 +724,46 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="J4" s="4" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="K4" s="4" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="M4" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="N4" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="O4" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -732,46 +771,46 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="I5" s="3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="J5" s="4" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="K5" s="4" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="L5" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="M5" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="N5" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="O5" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -779,33 +818,33 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I6" s="3"/>
       <c r="K6" s="2"/>
       <c r="L6" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="M6" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="N6" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="O6" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -813,39 +852,39 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="I7" s="3"/>
       <c r="J7" s="4" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="K7" s="2"/>
       <c r="L7" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="M7" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="N7" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="O7" s="1" t="s">
         <v>50</v>
-      </c>
-      <c r="O7" s="1" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -853,39 +892,39 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H8" s="3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="I8" s="3" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="J8" s="2"/>
       <c r="K8" s="2"/>
       <c r="L8" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="M8" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="N8" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="O8" s="1" t="s">
         <v>54</v>
-      </c>
-      <c r="O8" s="1" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -893,43 +932,43 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="I9" s="3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="J9" s="4" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="K9" s="4" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="L9" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="M9" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="N9" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="O9" s="1" t="s">
         <v>50</v>
-      </c>
-      <c r="O9" s="1" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -937,38 +976,38 @@
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H10" s="3"/>
       <c r="I10" s="3"/>
       <c r="J10" s="2"/>
       <c r="K10" s="2"/>
       <c r="L10" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="M10" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="N10" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="O10" s="3" t="s">
         <v>63</v>
-      </c>
-      <c r="O10" s="3" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -976,40 +1015,40 @@
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="H11" s="3" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="I11" s="3"/>
       <c r="J11" s="2"/>
       <c r="K11" s="2"/>
       <c r="L11" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="M11" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="N11" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="O11" s="3" t="s">
         <v>68</v>
-      </c>
-      <c r="O11" s="3" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1017,44 +1056,44 @@
         <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="I12" s="3" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="J12" s="4" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="K12" s="2"/>
       <c r="L12" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="M12" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="N12" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="O12" s="3" t="s">
         <v>72</v>
-      </c>
-      <c r="O12" s="3" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1062,46 +1101,46 @@
         <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="I13" s="3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="J13" s="4" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="K13" s="4" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="L13" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="M13" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="N13" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="O13" s="3" t="s">
         <v>76</v>
-      </c>
-      <c r="O13" s="3" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1109,36 +1148,36 @@
         <v>13</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D14" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="E14" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="E14" s="1" t="s">
-        <v>78</v>
-      </c>
       <c r="F14" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J14" s="2"/>
       <c r="K14" s="2"/>
       <c r="L14" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="M14" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="N14" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="O14" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1146,39 +1185,39 @@
         <v>14</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D15" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="E15" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="E15" s="1" t="s">
-        <v>78</v>
-      </c>
       <c r="F15" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="J15" s="2"/>
       <c r="K15" s="2"/>
       <c r="L15" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="M15" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="N15" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="O15" s="3" t="s">
         <v>87</v>
-      </c>
-      <c r="O15" s="3" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1186,46 +1225,46 @@
         <v>15</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D16" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="E16" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="E16" s="1" t="s">
-        <v>78</v>
-      </c>
       <c r="F16" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="I16" s="3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="J16" s="4" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="K16" s="4" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="L16" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="M16" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="N16" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="O16" s="3" t="s">
         <v>90</v>
-      </c>
-      <c r="O16" s="3" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1233,44 +1272,117 @@
         <v>16</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D17" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="E17" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="E17" s="1" t="s">
-        <v>78</v>
-      </c>
       <c r="F17" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="I17" s="3" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="J17" s="4" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="K17" s="2"/>
       <c r="L17" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="M17" s="1" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="N17" s="1" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="O17" s="3" t="s">
-        <v>96</v>
+        <v>97</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A18" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I18" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="L18" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="M18" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="N18" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="O18" s="3" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A19" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="L19" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="M19" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="N19" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="O19" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="P19" s="3" t="s">
+        <v>108</v>
       </c>
     </row>
   </sheetData>

--- a/Popeyes.suite/Resources/Oracle.xlsx
+++ b/Popeyes.suite/Resources/Oracle.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="111">
   <si>
     <t xml:space="preserve">ID</t>
   </si>
@@ -70,6 +70,9 @@
     <t xml:space="preserve">Discounts</t>
   </si>
   <si>
+    <t xml:space="preserve">Coupons</t>
+  </si>
+  <si>
     <t xml:space="preserve">Popcorn Shrimp &amp; Tender ALC</t>
   </si>
   <si>
@@ -347,6 +350,9 @@
   </si>
   <si>
     <t xml:space="preserve">10% Off Order</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PLU Lookup</t>
   </si>
 </sst>
 </file>
@@ -357,7 +363,7 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="0.00"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -379,6 +385,12 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -423,7 +435,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -441,6 +453,10 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -567,10 +583,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:P19"/>
+  <dimension ref="A1:Q20"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="I1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="O18" activeCellId="0" sqref="O18"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="N1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="Q20" activeCellId="0" sqref="Q20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.72265625" defaultRowHeight="15.75" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -641,42 +657,45 @@
       <c r="P1" s="1" t="s">
         <v>15</v>
       </c>
+      <c r="Q1" s="0" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J2" s="2"/>
       <c r="K2" s="2"/>
       <c r="L2" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="N2" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="O2" s="1" t="s">
         <v>24</v>
-      </c>
-      <c r="O2" s="1" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -684,39 +703,39 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="J3" s="2"/>
       <c r="K3" s="2"/>
       <c r="L3" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="N3" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="O3" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -724,46 +743,46 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="J4" s="4" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="K4" s="4" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="M4" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="N4" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="O4" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -771,46 +790,46 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="I5" s="3" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="J5" s="4" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="K5" s="4" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="L5" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="M5" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="N5" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="O5" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -818,33 +837,33 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I6" s="3"/>
       <c r="K6" s="2"/>
       <c r="L6" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="M6" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="N6" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="O6" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -852,39 +871,39 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D7" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="C7" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>48</v>
-      </c>
       <c r="E7" s="3" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="I7" s="3"/>
       <c r="J7" s="4" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="K7" s="2"/>
       <c r="L7" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="M7" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="N7" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="O7" s="1" t="s">
         <v>51</v>
-      </c>
-      <c r="O7" s="1" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -892,39 +911,39 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H8" s="3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="I8" s="3" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="J8" s="2"/>
       <c r="K8" s="2"/>
       <c r="L8" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="M8" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="N8" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="O8" s="1" t="s">
         <v>55</v>
-      </c>
-      <c r="O8" s="1" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -932,43 +951,43 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="I9" s="3" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="J9" s="4" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="K9" s="4" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="L9" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="M9" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="N9" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="O9" s="1" t="s">
         <v>51</v>
-      </c>
-      <c r="O9" s="1" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -976,38 +995,38 @@
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H10" s="3"/>
       <c r="I10" s="3"/>
       <c r="J10" s="2"/>
       <c r="K10" s="2"/>
       <c r="L10" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="M10" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="N10" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="O10" s="3" t="s">
         <v>64</v>
-      </c>
-      <c r="O10" s="3" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1015,40 +1034,40 @@
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="H11" s="3" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="I11" s="3"/>
       <c r="J11" s="2"/>
       <c r="K11" s="2"/>
       <c r="L11" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="M11" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="N11" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="O11" s="3" t="s">
         <v>69</v>
-      </c>
-      <c r="O11" s="3" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1056,44 +1075,44 @@
         <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="I12" s="3" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="J12" s="4" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="K12" s="2"/>
       <c r="L12" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="M12" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="N12" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="O12" s="3" t="s">
         <v>73</v>
-      </c>
-      <c r="O12" s="3" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1101,46 +1120,46 @@
         <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="I13" s="3" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="J13" s="4" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="K13" s="4" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="L13" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="M13" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="N13" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="O13" s="3" t="s">
         <v>77</v>
-      </c>
-      <c r="O13" s="3" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1148,36 +1167,36 @@
         <v>13</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D14" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="E14" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="E14" s="1" t="s">
-        <v>79</v>
-      </c>
       <c r="F14" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J14" s="2"/>
       <c r="K14" s="2"/>
       <c r="L14" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="M14" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="N14" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="O14" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1185,39 +1204,39 @@
         <v>14</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D15" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="E15" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="E15" s="1" t="s">
-        <v>79</v>
-      </c>
       <c r="F15" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="J15" s="2"/>
       <c r="K15" s="2"/>
       <c r="L15" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="M15" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="N15" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="O15" s="3" t="s">
         <v>88</v>
-      </c>
-      <c r="O15" s="3" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1225,46 +1244,46 @@
         <v>15</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D16" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="E16" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="E16" s="1" t="s">
-        <v>79</v>
-      </c>
       <c r="F16" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="I16" s="3" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="J16" s="4" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="K16" s="4" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="L16" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="M16" s="1" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="N16" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="O16" s="3" t="s">
         <v>91</v>
-      </c>
-      <c r="O16" s="3" t="s">
-        <v>90</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1272,44 +1291,44 @@
         <v>16</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D17" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="E17" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="E17" s="1" t="s">
-        <v>79</v>
-      </c>
       <c r="F17" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="I17" s="3" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="J17" s="4" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="K17" s="2"/>
       <c r="L17" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="M17" s="1" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="N17" s="1" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="O17" s="3" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1317,37 +1336,37 @@
         <v>17</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="I18" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="L18" s="1" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="M18" s="1" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="N18" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="O18" s="3" t="s">
         <v>104</v>
-      </c>
-      <c r="O18" s="3" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1355,34 +1374,45 @@
         <v>18</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L19" s="1" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="M19" s="1" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="N19" s="3" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="O19" s="3" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="P19" s="3" t="s">
-        <v>108</v>
+        <v>109</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A20" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="Q20" s="5" t="n">
+        <v>8578</v>
       </c>
     </row>
   </sheetData>

--- a/Popeyes.suite/Resources/Oracle.xlsx
+++ b/Popeyes.suite/Resources/Oracle.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="109">
   <si>
     <t xml:space="preserve">ID</t>
   </si>
@@ -205,10 +205,13 @@
     <t xml:space="preserve">Wings</t>
   </si>
   <si>
-    <t xml:space="preserve">12 Pc. Wings</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6 Garlic Parmesan Wings, Bold BBQ, 6 Ghost Pepper Wings, Tartar</t>
+    <t xml:space="preserve">12 P Wings</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12P Wings</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wng Classic 6P, Bold BBQ, Wng Honey BBQ, Tartar</t>
   </si>
   <si>
     <t xml:space="preserve">Wing 12P</t>
@@ -223,9 +226,6 @@
     <t xml:space="preserve">12 PC Wings Dinner</t>
   </si>
   <si>
-    <t xml:space="preserve">6 Honey BBQ Wings, Bold BBQ, 6 Honey BBQ Wings, Bayou Buffalo</t>
-  </si>
-  <si>
     <t xml:space="preserve">Rg Cajun Fries</t>
   </si>
   <si>
@@ -238,9 +238,6 @@
     <t xml:space="preserve">12 PC Wings Combo</t>
   </si>
   <si>
-    <t xml:space="preserve">6 Signature Hot Wings, Tartar, 6 Honey Lemon Pepper Wings, Buttermilk Ranch</t>
-  </si>
-  <si>
     <t xml:space="preserve">Wing 6p Signature Hot, Wing 6p Honey Lemon, Mac &amp; Cheese Rg</t>
   </si>
   <si>
@@ -248,9 +245,6 @@
   </si>
   <si>
     <t xml:space="preserve">12 PC Wings Lg Combo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6P Garlic Parm Boneless, Bold BBQ, 6 Ghost Pepper Wings, Cocktail</t>
   </si>
   <si>
     <t xml:space="preserve">Bnls 6p Garlic Parm, Wing 6p Ghost Pepper, Mac &amp; Cheese Rg, Coleslaw Rg</t>
@@ -363,7 +357,7 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="0.00"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="4">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -385,12 +379,6 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Aptos Narrow"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -435,7 +423,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -453,10 +441,6 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -585,8 +569,8 @@
   </sheetPr>
   <dimension ref="A1:Q20"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="N1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="Q20" activeCellId="0" sqref="Q20"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E10" activeCellId="0" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.72265625" defaultRowHeight="15.75" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1004,10 +988,10 @@
         <v>61</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="G10" s="1" t="s">
         <v>22</v>
@@ -1017,16 +1001,16 @@
       <c r="J10" s="2"/>
       <c r="K10" s="2"/>
       <c r="L10" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="M10" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="N10" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="O10" s="3" t="s">
         <v>65</v>
-      </c>
-      <c r="O10" s="3" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1034,7 +1018,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>60</v>
@@ -1043,10 +1027,10 @@
         <v>61</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="G11" s="1" t="s">
         <v>28</v>
@@ -1058,7 +1042,7 @@
       <c r="J11" s="2"/>
       <c r="K11" s="2"/>
       <c r="L11" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="M11" s="1" t="s">
         <v>69</v>
@@ -1084,10 +1068,10 @@
         <v>61</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>72</v>
+        <v>63</v>
       </c>
       <c r="G12" s="1" t="s">
         <v>35</v>
@@ -1103,16 +1087,16 @@
       </c>
       <c r="K12" s="2"/>
       <c r="L12" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="M12" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="N12" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="N12" s="3" t="s">
-        <v>74</v>
-      </c>
       <c r="O12" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1120,7 +1104,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>60</v>
@@ -1129,10 +1113,10 @@
         <v>61</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>76</v>
+        <v>63</v>
       </c>
       <c r="G13" s="1" t="s">
         <v>44</v>
@@ -1150,16 +1134,16 @@
         <v>39</v>
       </c>
       <c r="L13" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="M13" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="N13" s="3" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="O13" s="3" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1167,19 +1151,19 @@
         <v>13</v>
       </c>
       <c r="B14" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="D14" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="C14" s="1" t="s">
+      <c r="E14" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="F14" s="1" t="s">
         <v>80</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="F14" s="1" t="s">
-        <v>82</v>
       </c>
       <c r="G14" s="1" t="s">
         <v>22</v>
@@ -1187,16 +1171,16 @@
       <c r="J14" s="2"/>
       <c r="K14" s="2"/>
       <c r="L14" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="M14" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="N14" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="M14" s="1" t="s">
+      <c r="O14" s="1" t="s">
         <v>84</v>
-      </c>
-      <c r="N14" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="O14" s="1" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1204,19 +1188,19 @@
         <v>14</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C15" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="F15" s="1" t="s">
         <v>80</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="F15" s="1" t="s">
-        <v>82</v>
       </c>
       <c r="G15" s="1" t="s">
         <v>28</v>
@@ -1227,16 +1211,16 @@
       <c r="J15" s="2"/>
       <c r="K15" s="2"/>
       <c r="L15" s="1" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="M15" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="N15" s="1" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="O15" s="3" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1244,19 +1228,19 @@
         <v>15</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C16" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="F16" s="1" t="s">
         <v>80</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="F16" s="1" t="s">
-        <v>82</v>
       </c>
       <c r="G16" s="1" t="s">
         <v>35</v>
@@ -1274,16 +1258,16 @@
         <v>39</v>
       </c>
       <c r="L16" s="1" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="M16" s="1" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="N16" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="O16" s="3" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1291,44 +1275,44 @@
         <v>16</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C17" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="F17" s="1" t="s">
         <v>80</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="F17" s="1" t="s">
-        <v>82</v>
       </c>
       <c r="G17" s="1" t="s">
         <v>44</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="I17" s="3" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="J17" s="4" t="s">
         <v>38</v>
       </c>
       <c r="K17" s="2"/>
       <c r="L17" s="1" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="M17" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="N17" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="O17" s="3" t="s">
         <v>96</v>
-      </c>
-      <c r="N17" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="O17" s="3" t="s">
-        <v>98</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1336,19 +1320,19 @@
         <v>17</v>
       </c>
       <c r="B18" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="D18" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="C18" s="1" t="s">
+      <c r="E18" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="F18" s="1" t="s">
         <v>100</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="F18" s="1" t="s">
-        <v>102</v>
       </c>
       <c r="G18" s="1" t="s">
         <v>35</v>
@@ -1357,16 +1341,16 @@
         <v>54</v>
       </c>
       <c r="L18" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="M18" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="N18" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="M18" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="N18" s="1" t="s">
-        <v>105</v>
-      </c>
       <c r="O18" s="3" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1374,34 +1358,34 @@
         <v>18</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>48</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="G19" s="1" t="s">
         <v>22</v>
       </c>
       <c r="L19" s="1" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="M19" s="1" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="N19" s="3" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="O19" s="3" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="P19" s="3" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1409,31 +1393,31 @@
         <v>19</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="C20" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="C20" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="D20" s="5" t="s">
-        <v>107</v>
-      </c>
-      <c r="E20" s="5" t="s">
-        <v>108</v>
-      </c>
-      <c r="G20" s="5" t="s">
+      <c r="D20" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="G20" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="L20" s="5" t="s">
-        <v>108</v>
-      </c>
-      <c r="M20" s="5" t="s">
-        <v>108</v>
-      </c>
-      <c r="N20" s="5" t="s">
-        <v>108</v>
-      </c>
-      <c r="O20" s="5" t="s">
-        <v>108</v>
+      <c r="L20" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="M20" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="N20" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="O20" s="3" t="s">
+        <v>106</v>
       </c>
       <c r="Q20" s="3" t="n">
         <v>1126</v>
